--- a/week2/week_2-1/week_2/spreadsheets/inventory.xlsx
+++ b/week2/week_2-1/week_2/spreadsheets/inventory.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Quantity</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>order_amount</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -523,6 +528,9 @@
       <c r="E5" t="n">
         <v>364</v>
       </c>
+      <c r="F5" t="n">
+        <v>1136</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -542,6 +550,9 @@
       <c r="E6" t="n">
         <v>120</v>
       </c>
+      <c r="F6" t="n">
+        <v>1880</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -580,6 +591,9 @@
       <c r="E8" t="n">
         <v>24</v>
       </c>
+      <c r="F8" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -599,6 +613,9 @@
       <c r="E9" t="n">
         <v>12</v>
       </c>
+      <c r="F9" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -693,6 +710,9 @@
       </c>
       <c r="E14" t="n">
         <v>249</v>
+      </c>
+      <c r="F14" t="n">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
